--- a/data/Math.xlsx
+++ b/data/Math.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B0D21B-D45D-4B34-93D5-5F50822126A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5968792-94BD-4D97-8C6B-AAEEB865CEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -42,13 +42,19 @@
     <t>GRADE</t>
   </si>
   <si>
+    <t>SECTION</t>
+  </si>
+  <si>
     <t>Trigonometry</t>
   </si>
   <si>
     <t>Alina, Leya, Mariyam, Ayisha</t>
   </si>
   <si>
-    <t>9B</t>
+    <t>IX B</t>
+  </si>
+  <si>
+    <t>Girls Section</t>
   </si>
   <si>
     <t>Algebraic Expressions</t>
@@ -63,7 +69,7 @@
     <t>Nihira, Zunairah</t>
   </si>
   <si>
-    <t>6 B</t>
+    <t>VI B</t>
   </si>
   <si>
     <t>Symmetry</t>
@@ -72,7 +78,7 @@
     <t>Shivanya, Kulsum, Zainab</t>
   </si>
   <si>
-    <t>5B</t>
+    <t>V B</t>
   </si>
   <si>
     <t>Rational Numbers</t>
@@ -81,7 +87,7 @@
     <t>Afsheen, Meera, Sarrah</t>
   </si>
   <si>
-    <t>7 B</t>
+    <t>VII B</t>
   </si>
   <si>
     <t>Multiplication</t>
@@ -90,7 +96,74 @@
     <t>Inka, Omama, Zaara</t>
   </si>
   <si>
-    <t>4B</t>
+    <t>Abacus</t>
+  </si>
+  <si>
+    <t>Imran Mohammed</t>
+  </si>
+  <si>
+    <t>IV C</t>
+  </si>
+  <si>
+    <t>Boys Section</t>
+  </si>
+  <si>
+    <t>Bar Graph Working
+Model</t>
+  </si>
+  <si>
+    <t>Mohammed Abrar Ali,  
+Mohammed Muzaffaruddin</t>
+  </si>
+  <si>
+    <t>VII A</t>
+  </si>
+  <si>
+    <t>Chart Tab Francais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Sameeh Pokkalath </t>
+  </si>
+  <si>
+    <t>Laws Of Indices</t>
+  </si>
+  <si>
+    <t>Mohammad Ayaan Shafiq, Abdulwahab Adeel, Abdul Hadi Kallivalappil</t>
+  </si>
+  <si>
+    <t>VIII A</t>
+  </si>
+  <si>
+    <t>Pythagoras Theorem</t>
+  </si>
+  <si>
+    <t>Rayyan Abdul Rasheed,  
+Krithik Jha, Syed Mohammad Saleh</t>
+  </si>
+  <si>
+    <t>IX A</t>
+  </si>
+  <si>
+    <t>Circles Theorem</t>
+  </si>
+  <si>
+    <t>Dayyan Ahmed Daulatabad,  Zayyan Ahmed Daulatabad,  Ibraheem Mudassar Sayed</t>
+  </si>
+  <si>
+    <t>Algebraic Identities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudarshan Ravindranath,  Mohammed Atif Khan,  Mujtaba Hussain </t>
+  </si>
+  <si>
+    <t>Application Of
+ Trigonomentry</t>
+  </si>
+  <si>
+    <t>Adithian Rajmohan Nair, Murtaza Raja, Prithvi Varun</t>
+  </si>
+  <si>
+    <t>X A</t>
   </si>
 </sst>
 </file>
@@ -442,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,7 +527,7 @@
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,71 +537,204 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
